--- a/docs/基础数据：客户及用户定义.xlsx
+++ b/docs/基础数据：客户及用户定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="客户类型" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="用户状态" sheetId="3" r:id="rId3"/>
     <sheet name="客户状态" sheetId="4" r:id="rId4"/>
     <sheet name="代理商客户" sheetId="5" r:id="rId5"/>
+    <sheet name="审核状态" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>类型ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -229,6 +230,10 @@
   </si>
   <si>
     <t>禁用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待提交</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -734,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -757,7 +762,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -768,7 +773,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -779,7 +784,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -799,7 +804,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -862,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -964,4 +969,68 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>